--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3938.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3938.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.154217563897367</v>
+        <v>0.6139386892318726</v>
       </c>
       <c r="B1">
-        <v>1.64282697899896</v>
+        <v>1.138901114463806</v>
       </c>
       <c r="C1">
-        <v>3.067318971020618</v>
+        <v>5.780870914459229</v>
       </c>
       <c r="D1">
-        <v>7.102969919920083</v>
+        <v>1.734243154525757</v>
       </c>
       <c r="E1">
-        <v>1.908250573260842</v>
+        <v>1.354554295539856</v>
       </c>
     </row>
   </sheetData>
